--- a/ProgramCode/stickGainsExt.xlsx
+++ b/ProgramCode/stickGainsExt.xlsx
@@ -341,7 +341,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
